--- a/BackTest/2020-01-21 BackTest BTC.xlsx
+++ b/BackTest/2020-01-21 BackTest BTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -10648,7 +10648,7 @@
         <v>61.20290779999996</v>
       </c>
       <c r="H311" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>58.00890779999996</v>
       </c>
       <c r="H312" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>56.95720779999996</v>
       </c>
       <c r="H313" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>58.15080779999997</v>
       </c>
       <c r="H314" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>93.62790081999997</v>
       </c>
       <c r="H320" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>96.39640085999997</v>
       </c>
       <c r="H321" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>90.67470085999997</v>
       </c>
       <c r="H322" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>93.05940085999997</v>
       </c>
       <c r="H323" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>97.12360081999996</v>
       </c>
       <c r="H324" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>111.60275933</v>
       </c>
       <c r="H325" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>110.88055933</v>
       </c>
       <c r="H326" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>110.57015933</v>
       </c>
       <c r="H327" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>110.22045933</v>
       </c>
       <c r="H328" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>112.07707267</v>
       </c>
       <c r="H329" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>108.07867999</v>
       </c>
       <c r="H330" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>104.83607999</v>
       </c>
       <c r="H331" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>104.83607999</v>
       </c>
       <c r="H332" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>105.29374477</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>105.0997455</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>107.68984623</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>114.92023289</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>118.55971215</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>119.53576896</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>118.99776799</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>119.07206799</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>119.07206799</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>117.78866799</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>117.96746799</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>125.44726799</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>123.5198675</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>123.5198675</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>114.49913385</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>114.32673385</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>23.10512221999994</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>17.68668480999994</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>21.36598480999994</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>17.96898480999994</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>20.89138480999994</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>29.09108480999994</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>26.83348480999994</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>33.70200809999994</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>36.69791171999994</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>39.72221171999995</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>45.47171171999994</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>54.62011171999995</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>51.94401171999995</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>52.65131171999995</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>48.73441171999995</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>43.43991171999996</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>47.60501171999996</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>45.64061171999996</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>43.74181171999996</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>47.09561171999996</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>46.86161171999996</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>37.10135683999995</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>37.96201877999995</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>37.56191877999995</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>36.19644389999995</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>35.52744389999995</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>33.70484091999995</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>30.18178133999994</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>31.69118133999994</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>36.31955939999993</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>26.18755939999993</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>15.68709054999993</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>15.68709054999993</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>24.02003206999994</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>-7.832367930000064</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>9.586924669999934</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>6.512824669999935</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>8.876824669999934</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>19.83225003999993</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>14.59559806999993</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>15.64296549999993</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>15.64296549999993</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>14.22121448999993</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>16.52601448999993</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>15.76791448999993</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>15.76791448999993</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -42361,11 +42361,17 @@
         <v>-464.3692959999998</v>
       </c>
       <c r="H1272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1272" t="n">
+        <v>9786000</v>
+      </c>
       <c r="J1272" t="inlineStr"/>
-      <c r="K1272" t="inlineStr"/>
+      <c r="K1272" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L1272" t="n">
         <v>1</v>
       </c>
@@ -42394,11 +42400,17 @@
         <v>-473.2062962999998</v>
       </c>
       <c r="H1273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1273" t="n">
+        <v>9785000</v>
+      </c>
       <c r="J1273" t="inlineStr"/>
-      <c r="K1273" t="inlineStr"/>
+      <c r="K1273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1273" t="n">
         <v>1</v>
       </c>
@@ -42427,11 +42439,17 @@
         <v>-483.8985962999998</v>
       </c>
       <c r="H1274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1274" t="n">
+        <v>9778000</v>
+      </c>
       <c r="J1274" t="inlineStr"/>
-      <c r="K1274" t="inlineStr"/>
+      <c r="K1274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1274" t="n">
         <v>1</v>
       </c>
@@ -42460,7 +42478,7 @@
         <v>-483.8985962999998</v>
       </c>
       <c r="H1275" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1275" t="n">
         <v>9773000</v>
@@ -42468,7 +42486,7 @@
       <c r="J1275" t="inlineStr"/>
       <c r="K1275" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1275" t="n">
@@ -42499,7 +42517,7 @@
         <v>-482.6267962999999</v>
       </c>
       <c r="H1276" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1276" t="n">
         <v>9773000</v>
@@ -42538,7 +42556,7 @@
         <v>-474.4757962999998</v>
       </c>
       <c r="H1277" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1277" t="n">
         <v>9785000</v>
@@ -42577,7 +42595,7 @@
         <v>-477.3430962999998</v>
       </c>
       <c r="H1278" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1278" t="n">
         <v>9786000</v>
@@ -42616,7 +42634,7 @@
         <v>-479.5723020599999</v>
       </c>
       <c r="H1279" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1279" t="n">
         <v>9782000</v>
@@ -42655,7 +42673,7 @@
         <v>-475.2167865999999</v>
       </c>
       <c r="H1280" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1280" t="n">
         <v>9772000</v>
@@ -42694,7 +42712,7 @@
         <v>-473.9014865999999</v>
       </c>
       <c r="H1281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1281" t="n">
         <v>9773000</v>
@@ -42733,7 +42751,7 @@
         <v>-476.8876865999999</v>
       </c>
       <c r="H1282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1282" t="n">
         <v>9786000</v>
@@ -42772,7 +42790,7 @@
         <v>-474.8013865999999</v>
       </c>
       <c r="H1283" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1283" t="n">
         <v>9777000</v>
@@ -42811,7 +42829,7 @@
         <v>-472.6340865999999</v>
       </c>
       <c r="H1284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1284" t="n">
         <v>9779000</v>
@@ -42850,7 +42868,7 @@
         <v>-459.3749184999999</v>
       </c>
       <c r="H1285" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1285" t="n">
         <v>9785000</v>
@@ -42889,7 +42907,7 @@
         <v>-455.2689865999999</v>
       </c>
       <c r="H1286" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1286" t="n">
         <v>9792000</v>
@@ -42928,7 +42946,7 @@
         <v>-452.0493865999999</v>
       </c>
       <c r="H1287" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1287" t="n">
         <v>9801000</v>
@@ -42967,7 +42985,7 @@
         <v>-444.8651258299999</v>
       </c>
       <c r="H1288" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1288" t="n">
         <v>9802000</v>
@@ -43006,7 +43024,7 @@
         <v>-439.6425865999999</v>
       </c>
       <c r="H1289" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1289" t="n">
         <v>9808000</v>
@@ -43045,7 +43063,7 @@
         <v>-441.8821910799999</v>
       </c>
       <c r="H1290" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1290" t="n">
         <v>9823000</v>
@@ -43084,7 +43102,7 @@
         <v>-438.7740910799999</v>
       </c>
       <c r="H1291" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1291" t="n">
         <v>9820000</v>
@@ -43123,11 +43141,9 @@
         <v>-438.7740910799999</v>
       </c>
       <c r="H1292" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1292" t="n">
-        <v>9825000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1292" t="inlineStr"/>
       <c r="J1292" t="inlineStr"/>
       <c r="K1292" t="inlineStr">
         <is>
@@ -43347,11 +43363,9 @@
         <v>-450.5580624899999</v>
       </c>
       <c r="H1298" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1298" t="n">
-        <v>9811000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1298" t="inlineStr"/>
       <c r="J1298" t="inlineStr"/>
       <c r="K1298" t="inlineStr">
         <is>
@@ -44681,9 +44695,11 @@
         <v>-435.7872551199999</v>
       </c>
       <c r="H1334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1334" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1334" t="n">
+        <v>9845000</v>
+      </c>
       <c r="J1334" t="inlineStr"/>
       <c r="K1334" t="inlineStr">
         <is>
@@ -44718,9 +44734,11 @@
         <v>-439.38875902</v>
       </c>
       <c r="H1335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1335" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1335" t="n">
+        <v>9844000</v>
+      </c>
       <c r="J1335" t="inlineStr"/>
       <c r="K1335" t="inlineStr">
         <is>
@@ -45103,6 +45121,6 @@
       <c r="M1345" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest BTC.xlsx
+++ b/BackTest/2020-01-21 BackTest BTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>46.15214357999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>49.63404326999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>49.63404326999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>50.61104326999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>49.49644326999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>34.57092181999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>36.78962170999999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>45.02295045999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>53.79855045999999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>47.83775045999999</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>52.08245042999999</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>55.64295000999999</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>60.06032682999999</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>58.59372543999999</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>61.81342540999999</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>53.60622540999999</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>53.39712540999999</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>53.39712540999999</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>53.39712540999999</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>53.39712540999999</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>59.03632540999999</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>42.17952540999999</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>43.46977943999999</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>22.16215405999999</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>108.07867999</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>104.83607999</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>104.83607999</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>105.29374477</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>105.0997455</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>107.68984623</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>114.92023289</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>118.55971215</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>119.53576896</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>118.99776799</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>119.07206799</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>119.07206799</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>117.78866799</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>117.96746799</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>125.44726799</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>123.5198675</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>123.5198675</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>114.49913385</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>114.32673385</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>23.10512221999994</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>17.68668480999994</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>21.36598480999994</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>17.96898480999994</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>20.89138480999994</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>29.09108480999994</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>26.83348480999994</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>33.70200809999994</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>36.69791171999994</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>39.72221171999995</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>45.47171171999994</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>54.62011171999995</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>51.94401171999995</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>52.65131171999995</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>48.73441171999995</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>43.43991171999996</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>47.60501171999996</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>45.64061171999996</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>43.74181171999996</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>47.09561171999996</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>37.96201877999995</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>37.56191877999995</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>36.91664389999995</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>32.96062123999994</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>32.00532123999994</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>32.00532123999994</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>28.65508833999993</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>30.22713017999994</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>29.57392925999994</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>32.89462925999994</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>31.46112925999994</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>31.46112925999994</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>41.28421544999994</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>39.98571313999994</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>40.81001082999995</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>40.57141082999995</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>30.18178133999994</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>31.69118133999994</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>36.31955939999993</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>26.18755939999993</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>15.68709054999993</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>15.68709054999993</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>24.02003206999994</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>-7.832367930000064</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>9.586924669999934</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>6.512824669999935</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>8.876824669999934</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>19.83225003999993</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>14.59559806999993</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>15.64296549999993</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>15.64296549999993</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>14.22121448999993</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>16.52601448999993</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>15.76791448999993</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>15.76791448999993</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -22165,7 +22165,7 @@
         <v>-297.21371809</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -35200,7 +35200,7 @@
         <v>-336.7805400899998</v>
       </c>
       <c r="H1055" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
@@ -35233,7 +35233,7 @@
         <v>-336.7805400899998</v>
       </c>
       <c r="H1056" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
@@ -35266,7 +35266,7 @@
         <v>-336.7805400899998</v>
       </c>
       <c r="H1057" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
@@ -35299,7 +35299,7 @@
         <v>-337.2446421599998</v>
       </c>
       <c r="H1058" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
@@ -35332,7 +35332,7 @@
         <v>-338.1803421599998</v>
       </c>
       <c r="H1059" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
@@ -40810,11 +40810,17 @@
         <v>-426.1985682099997</v>
       </c>
       <c r="H1225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>9811000</v>
+      </c>
       <c r="J1225" t="inlineStr"/>
-      <c r="K1225" t="inlineStr"/>
+      <c r="K1225" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L1225" t="n">
         <v>1</v>
       </c>
@@ -40847,7 +40853,11 @@
       </c>
       <c r="I1226" t="inlineStr"/>
       <c r="J1226" t="inlineStr"/>
-      <c r="K1226" t="inlineStr"/>
+      <c r="K1226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1226" t="n">
         <v>1</v>
       </c>
@@ -40876,11 +40886,17 @@
         <v>-412.2498682099998</v>
       </c>
       <c r="H1227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>9805000</v>
+      </c>
       <c r="J1227" t="inlineStr"/>
-      <c r="K1227" t="inlineStr"/>
+      <c r="K1227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1227" t="n">
         <v>1</v>
       </c>
@@ -40909,11 +40925,17 @@
         <v>-414.3343452399998</v>
       </c>
       <c r="H1228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>9811000</v>
+      </c>
       <c r="J1228" t="inlineStr"/>
-      <c r="K1228" t="inlineStr"/>
+      <c r="K1228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1228" t="n">
         <v>1</v>
       </c>
@@ -40942,11 +40964,17 @@
         <v>-412.1680260799998</v>
       </c>
       <c r="H1229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>9810000</v>
+      </c>
       <c r="J1229" t="inlineStr"/>
-      <c r="K1229" t="inlineStr"/>
+      <c r="K1229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1229" t="n">
         <v>1</v>
       </c>
@@ -40979,7 +41007,11 @@
       </c>
       <c r="I1230" t="inlineStr"/>
       <c r="J1230" t="inlineStr"/>
-      <c r="K1230" t="inlineStr"/>
+      <c r="K1230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1230" t="n">
         <v>1</v>
       </c>
@@ -41008,11 +41040,17 @@
         <v>-411.3356260799998</v>
       </c>
       <c r="H1231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>9813000</v>
+      </c>
       <c r="J1231" t="inlineStr"/>
-      <c r="K1231" t="inlineStr"/>
+      <c r="K1231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1231" t="n">
         <v>1</v>
       </c>
@@ -41045,7 +41083,11 @@
       </c>
       <c r="I1232" t="inlineStr"/>
       <c r="J1232" t="inlineStr"/>
-      <c r="K1232" t="inlineStr"/>
+      <c r="K1232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1232" t="n">
         <v>1</v>
       </c>
@@ -41078,7 +41120,11 @@
       </c>
       <c r="I1233" t="inlineStr"/>
       <c r="J1233" t="inlineStr"/>
-      <c r="K1233" t="inlineStr"/>
+      <c r="K1233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1233" t="n">
         <v>1</v>
       </c>
@@ -41111,7 +41157,11 @@
       </c>
       <c r="I1234" t="inlineStr"/>
       <c r="J1234" t="inlineStr"/>
-      <c r="K1234" t="inlineStr"/>
+      <c r="K1234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1234" t="n">
         <v>1</v>
       </c>
@@ -41144,7 +41194,11 @@
       </c>
       <c r="I1235" t="inlineStr"/>
       <c r="J1235" t="inlineStr"/>
-      <c r="K1235" t="inlineStr"/>
+      <c r="K1235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1235" t="n">
         <v>1</v>
       </c>
@@ -41177,7 +41231,11 @@
       </c>
       <c r="I1236" t="inlineStr"/>
       <c r="J1236" t="inlineStr"/>
-      <c r="K1236" t="inlineStr"/>
+      <c r="K1236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1236" t="n">
         <v>1</v>
       </c>
@@ -41210,7 +41268,11 @@
       </c>
       <c r="I1237" t="inlineStr"/>
       <c r="J1237" t="inlineStr"/>
-      <c r="K1237" t="inlineStr"/>
+      <c r="K1237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1237" t="n">
         <v>1</v>
       </c>
@@ -41243,7 +41305,11 @@
       </c>
       <c r="I1238" t="inlineStr"/>
       <c r="J1238" t="inlineStr"/>
-      <c r="K1238" t="inlineStr"/>
+      <c r="K1238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1238" t="n">
         <v>1</v>
       </c>
@@ -41276,7 +41342,11 @@
       </c>
       <c r="I1239" t="inlineStr"/>
       <c r="J1239" t="inlineStr"/>
-      <c r="K1239" t="inlineStr"/>
+      <c r="K1239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1239" t="n">
         <v>1</v>
       </c>
@@ -41309,7 +41379,11 @@
       </c>
       <c r="I1240" t="inlineStr"/>
       <c r="J1240" t="inlineStr"/>
-      <c r="K1240" t="inlineStr"/>
+      <c r="K1240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1240" t="n">
         <v>1</v>
       </c>
@@ -41342,7 +41416,11 @@
       </c>
       <c r="I1241" t="inlineStr"/>
       <c r="J1241" t="inlineStr"/>
-      <c r="K1241" t="inlineStr"/>
+      <c r="K1241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1241" t="n">
         <v>1</v>
       </c>
@@ -41375,7 +41453,11 @@
       </c>
       <c r="I1242" t="inlineStr"/>
       <c r="J1242" t="inlineStr"/>
-      <c r="K1242" t="inlineStr"/>
+      <c r="K1242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1242" t="n">
         <v>1</v>
       </c>
@@ -41408,7 +41490,11 @@
       </c>
       <c r="I1243" t="inlineStr"/>
       <c r="J1243" t="inlineStr"/>
-      <c r="K1243" t="inlineStr"/>
+      <c r="K1243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1243" t="n">
         <v>1</v>
       </c>
@@ -41441,7 +41527,11 @@
       </c>
       <c r="I1244" t="inlineStr"/>
       <c r="J1244" t="inlineStr"/>
-      <c r="K1244" t="inlineStr"/>
+      <c r="K1244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1244" t="n">
         <v>1</v>
       </c>
@@ -41474,7 +41564,11 @@
       </c>
       <c r="I1245" t="inlineStr"/>
       <c r="J1245" t="inlineStr"/>
-      <c r="K1245" t="inlineStr"/>
+      <c r="K1245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1245" t="n">
         <v>1</v>
       </c>
@@ -41507,7 +41601,11 @@
       </c>
       <c r="I1246" t="inlineStr"/>
       <c r="J1246" t="inlineStr"/>
-      <c r="K1246" t="inlineStr"/>
+      <c r="K1246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1246" t="n">
         <v>1</v>
       </c>
@@ -41540,7 +41638,11 @@
       </c>
       <c r="I1247" t="inlineStr"/>
       <c r="J1247" t="inlineStr"/>
-      <c r="K1247" t="inlineStr"/>
+      <c r="K1247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1247" t="n">
         <v>1</v>
       </c>
@@ -41573,7 +41675,11 @@
       </c>
       <c r="I1248" t="inlineStr"/>
       <c r="J1248" t="inlineStr"/>
-      <c r="K1248" t="inlineStr"/>
+      <c r="K1248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1248" t="n">
         <v>1</v>
       </c>
@@ -41606,7 +41712,11 @@
       </c>
       <c r="I1249" t="inlineStr"/>
       <c r="J1249" t="inlineStr"/>
-      <c r="K1249" t="inlineStr"/>
+      <c r="K1249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1249" t="n">
         <v>1</v>
       </c>
@@ -41639,7 +41749,11 @@
       </c>
       <c r="I1250" t="inlineStr"/>
       <c r="J1250" t="inlineStr"/>
-      <c r="K1250" t="inlineStr"/>
+      <c r="K1250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1250" t="n">
         <v>1</v>
       </c>
@@ -41672,7 +41786,11 @@
       </c>
       <c r="I1251" t="inlineStr"/>
       <c r="J1251" t="inlineStr"/>
-      <c r="K1251" t="inlineStr"/>
+      <c r="K1251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1251" t="n">
         <v>1</v>
       </c>
@@ -41705,7 +41823,11 @@
       </c>
       <c r="I1252" t="inlineStr"/>
       <c r="J1252" t="inlineStr"/>
-      <c r="K1252" t="inlineStr"/>
+      <c r="K1252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1252" t="n">
         <v>1</v>
       </c>
@@ -41738,7 +41860,11 @@
       </c>
       <c r="I1253" t="inlineStr"/>
       <c r="J1253" t="inlineStr"/>
-      <c r="K1253" t="inlineStr"/>
+      <c r="K1253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1253" t="n">
         <v>1</v>
       </c>
@@ -41771,7 +41897,11 @@
       </c>
       <c r="I1254" t="inlineStr"/>
       <c r="J1254" t="inlineStr"/>
-      <c r="K1254" t="inlineStr"/>
+      <c r="K1254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1254" t="n">
         <v>1</v>
       </c>
@@ -41804,7 +41934,11 @@
       </c>
       <c r="I1255" t="inlineStr"/>
       <c r="J1255" t="inlineStr"/>
-      <c r="K1255" t="inlineStr"/>
+      <c r="K1255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1255" t="n">
         <v>1</v>
       </c>
@@ -41837,7 +41971,11 @@
       </c>
       <c r="I1256" t="inlineStr"/>
       <c r="J1256" t="inlineStr"/>
-      <c r="K1256" t="inlineStr"/>
+      <c r="K1256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1256" t="n">
         <v>1</v>
       </c>
@@ -41870,7 +42008,11 @@
       </c>
       <c r="I1257" t="inlineStr"/>
       <c r="J1257" t="inlineStr"/>
-      <c r="K1257" t="inlineStr"/>
+      <c r="K1257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1257" t="n">
         <v>1</v>
       </c>
@@ -41903,7 +42045,11 @@
       </c>
       <c r="I1258" t="inlineStr"/>
       <c r="J1258" t="inlineStr"/>
-      <c r="K1258" t="inlineStr"/>
+      <c r="K1258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1258" t="n">
         <v>1</v>
       </c>
@@ -41936,7 +42082,11 @@
       </c>
       <c r="I1259" t="inlineStr"/>
       <c r="J1259" t="inlineStr"/>
-      <c r="K1259" t="inlineStr"/>
+      <c r="K1259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1259" t="n">
         <v>1</v>
       </c>
@@ -41969,7 +42119,11 @@
       </c>
       <c r="I1260" t="inlineStr"/>
       <c r="J1260" t="inlineStr"/>
-      <c r="K1260" t="inlineStr"/>
+      <c r="K1260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1260" t="n">
         <v>1</v>
       </c>
@@ -42002,7 +42156,11 @@
       </c>
       <c r="I1261" t="inlineStr"/>
       <c r="J1261" t="inlineStr"/>
-      <c r="K1261" t="inlineStr"/>
+      <c r="K1261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1261" t="n">
         <v>1</v>
       </c>
@@ -42035,7 +42193,11 @@
       </c>
       <c r="I1262" t="inlineStr"/>
       <c r="J1262" t="inlineStr"/>
-      <c r="K1262" t="inlineStr"/>
+      <c r="K1262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1262" t="n">
         <v>1</v>
       </c>
@@ -42068,7 +42230,11 @@
       </c>
       <c r="I1263" t="inlineStr"/>
       <c r="J1263" t="inlineStr"/>
-      <c r="K1263" t="inlineStr"/>
+      <c r="K1263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1263" t="n">
         <v>1</v>
       </c>
@@ -42101,7 +42267,11 @@
       </c>
       <c r="I1264" t="inlineStr"/>
       <c r="J1264" t="inlineStr"/>
-      <c r="K1264" t="inlineStr"/>
+      <c r="K1264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1264" t="n">
         <v>1</v>
       </c>
@@ -42134,7 +42304,11 @@
       </c>
       <c r="I1265" t="inlineStr"/>
       <c r="J1265" t="inlineStr"/>
-      <c r="K1265" t="inlineStr"/>
+      <c r="K1265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1265" t="n">
         <v>1</v>
       </c>
@@ -42167,7 +42341,11 @@
       </c>
       <c r="I1266" t="inlineStr"/>
       <c r="J1266" t="inlineStr"/>
-      <c r="K1266" t="inlineStr"/>
+      <c r="K1266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1266" t="n">
         <v>1</v>
       </c>
@@ -42200,7 +42378,11 @@
       </c>
       <c r="I1267" t="inlineStr"/>
       <c r="J1267" t="inlineStr"/>
-      <c r="K1267" t="inlineStr"/>
+      <c r="K1267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1267" t="n">
         <v>1</v>
       </c>
@@ -42233,7 +42415,11 @@
       </c>
       <c r="I1268" t="inlineStr"/>
       <c r="J1268" t="inlineStr"/>
-      <c r="K1268" t="inlineStr"/>
+      <c r="K1268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1268" t="n">
         <v>1</v>
       </c>
@@ -42266,7 +42452,11 @@
       </c>
       <c r="I1269" t="inlineStr"/>
       <c r="J1269" t="inlineStr"/>
-      <c r="K1269" t="inlineStr"/>
+      <c r="K1269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1269" t="n">
         <v>1</v>
       </c>
@@ -42299,7 +42489,11 @@
       </c>
       <c r="I1270" t="inlineStr"/>
       <c r="J1270" t="inlineStr"/>
-      <c r="K1270" t="inlineStr"/>
+      <c r="K1270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1270" t="n">
         <v>1</v>
       </c>
@@ -42332,7 +42526,11 @@
       </c>
       <c r="I1271" t="inlineStr"/>
       <c r="J1271" t="inlineStr"/>
-      <c r="K1271" t="inlineStr"/>
+      <c r="K1271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1271" t="n">
         <v>1</v>
       </c>
@@ -42361,15 +42559,13 @@
         <v>-464.3692959999998</v>
       </c>
       <c r="H1272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1272" t="n">
-        <v>9786000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1272" t="inlineStr"/>
       <c r="J1272" t="inlineStr"/>
       <c r="K1272" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1272" t="n">
@@ -43024,11 +43220,9 @@
         <v>-439.6425865999999</v>
       </c>
       <c r="H1289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1289" t="n">
-        <v>9808000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1289" t="inlineStr"/>
       <c r="J1289" t="inlineStr"/>
       <c r="K1289" t="inlineStr">
         <is>
@@ -43063,11 +43257,9 @@
         <v>-441.8821910799999</v>
       </c>
       <c r="H1290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1290" t="n">
-        <v>9823000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1290" t="inlineStr"/>
       <c r="J1290" t="inlineStr"/>
       <c r="K1290" t="inlineStr">
         <is>
@@ -43102,11 +43294,9 @@
         <v>-438.7740910799999</v>
       </c>
       <c r="H1291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1291" t="n">
-        <v>9820000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1291" t="inlineStr"/>
       <c r="J1291" t="inlineStr"/>
       <c r="K1291" t="inlineStr">
         <is>
@@ -44325,18 +44515,16 @@
         <v>-426.73485533</v>
       </c>
       <c r="H1324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1324" t="inlineStr"/>
       <c r="J1324" t="inlineStr"/>
       <c r="K1324" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L1324" t="n">
-        <v>1</v>
-      </c>
+      <c r="L1324" t="inlineStr"/>
       <c r="M1324" t="inlineStr"/>
     </row>
     <row r="1325">
@@ -44362,15 +44550,11 @@
         <v>-426.73485533</v>
       </c>
       <c r="H1325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1325" t="inlineStr"/>
       <c r="J1325" t="inlineStr"/>
-      <c r="K1325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1325" t="inlineStr"/>
       <c r="L1325" t="n">
         <v>1</v>
       </c>
@@ -44399,15 +44583,11 @@
         <v>-427.26295533</v>
       </c>
       <c r="H1326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1326" t="inlineStr"/>
       <c r="J1326" t="inlineStr"/>
-      <c r="K1326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1326" t="inlineStr"/>
       <c r="L1326" t="n">
         <v>1</v>
       </c>
@@ -44436,15 +44616,11 @@
         <v>-427.26295533</v>
       </c>
       <c r="H1327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1327" t="inlineStr"/>
       <c r="J1327" t="inlineStr"/>
-      <c r="K1327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1327" t="inlineStr"/>
       <c r="L1327" t="n">
         <v>1</v>
       </c>
@@ -44473,15 +44649,11 @@
         <v>-426.5189553299999</v>
       </c>
       <c r="H1328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1328" t="inlineStr"/>
       <c r="J1328" t="inlineStr"/>
-      <c r="K1328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1328" t="inlineStr"/>
       <c r="L1328" t="n">
         <v>1</v>
       </c>
@@ -44510,15 +44682,11 @@
         <v>-424.3354553299999</v>
       </c>
       <c r="H1329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1329" t="inlineStr"/>
       <c r="J1329" t="inlineStr"/>
-      <c r="K1329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1329" t="inlineStr"/>
       <c r="L1329" t="n">
         <v>1</v>
       </c>
@@ -44547,15 +44715,11 @@
         <v>-424.8425553299999</v>
       </c>
       <c r="H1330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1330" t="inlineStr"/>
       <c r="J1330" t="inlineStr"/>
-      <c r="K1330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1330" t="inlineStr"/>
       <c r="L1330" t="n">
         <v>1</v>
       </c>
@@ -44584,15 +44748,11 @@
         <v>-429.9102553299999</v>
       </c>
       <c r="H1331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1331" t="inlineStr"/>
       <c r="J1331" t="inlineStr"/>
-      <c r="K1331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1331" t="inlineStr"/>
       <c r="L1331" t="n">
         <v>1</v>
       </c>
@@ -44621,15 +44781,11 @@
         <v>-432.0698553299999</v>
       </c>
       <c r="H1332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1332" t="inlineStr"/>
       <c r="J1332" t="inlineStr"/>
-      <c r="K1332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1332" t="inlineStr"/>
       <c r="L1332" t="n">
         <v>1</v>
       </c>
@@ -44658,15 +44814,11 @@
         <v>-434.5092551199999</v>
       </c>
       <c r="H1333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1333" t="inlineStr"/>
       <c r="J1333" t="inlineStr"/>
-      <c r="K1333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1333" t="inlineStr"/>
       <c r="L1333" t="n">
         <v>1</v>
       </c>
@@ -44695,17 +44847,11 @@
         <v>-435.7872551199999</v>
       </c>
       <c r="H1334" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1334" t="n">
-        <v>9845000</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I1334" t="inlineStr"/>
       <c r="J1334" t="inlineStr"/>
-      <c r="K1334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1334" t="inlineStr"/>
       <c r="L1334" t="n">
         <v>1</v>
       </c>
@@ -44734,17 +44880,11 @@
         <v>-439.38875902</v>
       </c>
       <c r="H1335" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1335" t="n">
-        <v>9844000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1335" t="inlineStr"/>
       <c r="J1335" t="inlineStr"/>
-      <c r="K1335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1335" t="inlineStr"/>
       <c r="L1335" t="n">
         <v>1</v>
       </c>
@@ -44777,11 +44917,7 @@
       </c>
       <c r="I1336" t="inlineStr"/>
       <c r="J1336" t="inlineStr"/>
-      <c r="K1336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1336" t="inlineStr"/>
       <c r="L1336" t="n">
         <v>1</v>
       </c>
@@ -44814,11 +44950,7 @@
       </c>
       <c r="I1337" t="inlineStr"/>
       <c r="J1337" t="inlineStr"/>
-      <c r="K1337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1337" t="inlineStr"/>
       <c r="L1337" t="n">
         <v>1</v>
       </c>
@@ -44851,11 +44983,7 @@
       </c>
       <c r="I1338" t="inlineStr"/>
       <c r="J1338" t="inlineStr"/>
-      <c r="K1338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1338" t="inlineStr"/>
       <c r="L1338" t="n">
         <v>1</v>
       </c>
@@ -44888,11 +45016,7 @@
       </c>
       <c r="I1339" t="inlineStr"/>
       <c r="J1339" t="inlineStr"/>
-      <c r="K1339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1339" t="inlineStr"/>
       <c r="L1339" t="n">
         <v>1</v>
       </c>
@@ -44925,11 +45049,7 @@
       </c>
       <c r="I1340" t="inlineStr"/>
       <c r="J1340" t="inlineStr"/>
-      <c r="K1340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1340" t="inlineStr"/>
       <c r="L1340" t="n">
         <v>1</v>
       </c>
@@ -44962,11 +45082,7 @@
       </c>
       <c r="I1341" t="inlineStr"/>
       <c r="J1341" t="inlineStr"/>
-      <c r="K1341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1341" t="inlineStr"/>
       <c r="L1341" t="n">
         <v>1</v>
       </c>
@@ -44999,11 +45115,7 @@
       </c>
       <c r="I1342" t="inlineStr"/>
       <c r="J1342" t="inlineStr"/>
-      <c r="K1342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1342" t="inlineStr"/>
       <c r="L1342" t="n">
         <v>1</v>
       </c>
@@ -45036,11 +45148,7 @@
       </c>
       <c r="I1343" t="inlineStr"/>
       <c r="J1343" t="inlineStr"/>
-      <c r="K1343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1343" t="inlineStr"/>
       <c r="L1343" t="n">
         <v>1</v>
       </c>
@@ -45073,11 +45181,7 @@
       </c>
       <c r="I1344" t="inlineStr"/>
       <c r="J1344" t="inlineStr"/>
-      <c r="K1344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1344" t="inlineStr"/>
       <c r="L1344" t="n">
         <v>1</v>
       </c>
@@ -45110,17 +45214,13 @@
       </c>
       <c r="I1345" t="inlineStr"/>
       <c r="J1345" t="inlineStr"/>
-      <c r="K1345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1345" t="inlineStr"/>
       <c r="L1345" t="n">
         <v>1</v>
       </c>
       <c r="M1345" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest BTC.xlsx
+++ b/BackTest/2020-01-21 BackTest BTC.xlsx
@@ -451,7 +451,7 @@
         <v>46.15214357999999</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>49.63404326999999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>49.63404326999999</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>50.61104326999999</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>49.49644326999999</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>34.57092181999999</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>36.78962170999999</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>45.02295045999999</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>53.79855045999999</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>47.83775045999999</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>52.08245042999999</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>55.64295000999999</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>60.06032682999999</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>58.59372543999999</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>61.81342540999999</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>53.60622540999999</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>53.39712540999999</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>53.39712540999999</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>53.39712540999999</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>53.39712540999999</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>59.03632540999999</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>42.17952540999999</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>43.46977943999999</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>22.16215405999999</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>110.57015933</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>110.22045933</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>112.07707267</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>108.07867999</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>104.83607999</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>104.83607999</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>105.29374477</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>105.0997455</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>107.68984623</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>114.92023289</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>118.55971215</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>119.53576896</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>118.99776799</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>119.07206799</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>119.07206799</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>117.78866799</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>117.96746799</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>125.44726799</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>123.5198675</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>123.5198675</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>114.49913385</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>114.32673385</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>111.47443414</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>109.64743414</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>109.64743414</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>109.64743414</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>109.64743414</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>109.78223414</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>109.78223414</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>109.83823414</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>109.60283487</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>109.60283487</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>109.60283487</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>109.62783491</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>111.93577616</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>111.70577616</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>111.89961077</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>114.98087616</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>117.93687616</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>117.93687616</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>117.29547616</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>113.5051761599999</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>113.5051761599999</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>113.5051761599999</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>112.6434761599999</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>36.91664389999995</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>32.96062123999994</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>32.00532123999994</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>32.00532123999994</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>28.65508833999993</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>30.22713017999994</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>29.57392925999994</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>32.89462925999994</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>31.46112925999994</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>31.46112925999994</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>41.28421544999994</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>39.98571313999994</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>40.81001082999995</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>40.57141082999995</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -22165,7 +22165,7 @@
         <v>-297.21371809</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -35200,7 +35200,7 @@
         <v>-336.7805400899998</v>
       </c>
       <c r="H1055" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
@@ -35233,7 +35233,7 @@
         <v>-336.7805400899998</v>
       </c>
       <c r="H1056" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
@@ -35266,7 +35266,7 @@
         <v>-336.7805400899998</v>
       </c>
       <c r="H1057" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
@@ -35299,7 +35299,7 @@
         <v>-337.2446421599998</v>
       </c>
       <c r="H1058" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
@@ -35332,7 +35332,7 @@
         <v>-338.1803421599998</v>
       </c>
       <c r="H1059" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
@@ -40810,17 +40810,11 @@
         <v>-426.1985682099997</v>
       </c>
       <c r="H1225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1225" t="n">
-        <v>9811000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1225" t="inlineStr"/>
       <c r="J1225" t="inlineStr"/>
-      <c r="K1225" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K1225" t="inlineStr"/>
       <c r="L1225" t="n">
         <v>1</v>
       </c>
@@ -40853,11 +40847,7 @@
       </c>
       <c r="I1226" t="inlineStr"/>
       <c r="J1226" t="inlineStr"/>
-      <c r="K1226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1226" t="inlineStr"/>
       <c r="L1226" t="n">
         <v>1</v>
       </c>
@@ -40886,17 +40876,11 @@
         <v>-412.2498682099998</v>
       </c>
       <c r="H1227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1227" t="n">
-        <v>9805000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1227" t="inlineStr"/>
       <c r="J1227" t="inlineStr"/>
-      <c r="K1227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1227" t="inlineStr"/>
       <c r="L1227" t="n">
         <v>1</v>
       </c>
@@ -40925,17 +40909,11 @@
         <v>-414.3343452399998</v>
       </c>
       <c r="H1228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1228" t="n">
-        <v>9811000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1228" t="inlineStr"/>
       <c r="J1228" t="inlineStr"/>
-      <c r="K1228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1228" t="inlineStr"/>
       <c r="L1228" t="n">
         <v>1</v>
       </c>
@@ -40964,17 +40942,11 @@
         <v>-412.1680260799998</v>
       </c>
       <c r="H1229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1229" t="n">
-        <v>9810000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1229" t="inlineStr"/>
       <c r="J1229" t="inlineStr"/>
-      <c r="K1229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1229" t="inlineStr"/>
       <c r="L1229" t="n">
         <v>1</v>
       </c>
@@ -41007,11 +40979,7 @@
       </c>
       <c r="I1230" t="inlineStr"/>
       <c r="J1230" t="inlineStr"/>
-      <c r="K1230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1230" t="inlineStr"/>
       <c r="L1230" t="n">
         <v>1</v>
       </c>
@@ -41040,17 +41008,11 @@
         <v>-411.3356260799998</v>
       </c>
       <c r="H1231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1231" t="n">
-        <v>9813000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1231" t="inlineStr"/>
       <c r="J1231" t="inlineStr"/>
-      <c r="K1231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1231" t="inlineStr"/>
       <c r="L1231" t="n">
         <v>1</v>
       </c>
@@ -41083,11 +41045,7 @@
       </c>
       <c r="I1232" t="inlineStr"/>
       <c r="J1232" t="inlineStr"/>
-      <c r="K1232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1232" t="inlineStr"/>
       <c r="L1232" t="n">
         <v>1</v>
       </c>
@@ -41120,11 +41078,7 @@
       </c>
       <c r="I1233" t="inlineStr"/>
       <c r="J1233" t="inlineStr"/>
-      <c r="K1233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1233" t="inlineStr"/>
       <c r="L1233" t="n">
         <v>1</v>
       </c>
@@ -41157,11 +41111,7 @@
       </c>
       <c r="I1234" t="inlineStr"/>
       <c r="J1234" t="inlineStr"/>
-      <c r="K1234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1234" t="inlineStr"/>
       <c r="L1234" t="n">
         <v>1</v>
       </c>
@@ -41194,11 +41144,7 @@
       </c>
       <c r="I1235" t="inlineStr"/>
       <c r="J1235" t="inlineStr"/>
-      <c r="K1235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1235" t="inlineStr"/>
       <c r="L1235" t="n">
         <v>1</v>
       </c>
@@ -41231,11 +41177,7 @@
       </c>
       <c r="I1236" t="inlineStr"/>
       <c r="J1236" t="inlineStr"/>
-      <c r="K1236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1236" t="inlineStr"/>
       <c r="L1236" t="n">
         <v>1</v>
       </c>
@@ -41268,11 +41210,7 @@
       </c>
       <c r="I1237" t="inlineStr"/>
       <c r="J1237" t="inlineStr"/>
-      <c r="K1237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1237" t="inlineStr"/>
       <c r="L1237" t="n">
         <v>1</v>
       </c>
@@ -41305,11 +41243,7 @@
       </c>
       <c r="I1238" t="inlineStr"/>
       <c r="J1238" t="inlineStr"/>
-      <c r="K1238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1238" t="inlineStr"/>
       <c r="L1238" t="n">
         <v>1</v>
       </c>
@@ -41342,11 +41276,7 @@
       </c>
       <c r="I1239" t="inlineStr"/>
       <c r="J1239" t="inlineStr"/>
-      <c r="K1239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1239" t="inlineStr"/>
       <c r="L1239" t="n">
         <v>1</v>
       </c>
@@ -41379,11 +41309,7 @@
       </c>
       <c r="I1240" t="inlineStr"/>
       <c r="J1240" t="inlineStr"/>
-      <c r="K1240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1240" t="inlineStr"/>
       <c r="L1240" t="n">
         <v>1</v>
       </c>
@@ -41416,11 +41342,7 @@
       </c>
       <c r="I1241" t="inlineStr"/>
       <c r="J1241" t="inlineStr"/>
-      <c r="K1241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1241" t="inlineStr"/>
       <c r="L1241" t="n">
         <v>1</v>
       </c>
@@ -41453,11 +41375,7 @@
       </c>
       <c r="I1242" t="inlineStr"/>
       <c r="J1242" t="inlineStr"/>
-      <c r="K1242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1242" t="inlineStr"/>
       <c r="L1242" t="n">
         <v>1</v>
       </c>
@@ -41490,11 +41408,7 @@
       </c>
       <c r="I1243" t="inlineStr"/>
       <c r="J1243" t="inlineStr"/>
-      <c r="K1243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1243" t="inlineStr"/>
       <c r="L1243" t="n">
         <v>1</v>
       </c>
@@ -41527,11 +41441,7 @@
       </c>
       <c r="I1244" t="inlineStr"/>
       <c r="J1244" t="inlineStr"/>
-      <c r="K1244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1244" t="inlineStr"/>
       <c r="L1244" t="n">
         <v>1</v>
       </c>
@@ -41564,11 +41474,7 @@
       </c>
       <c r="I1245" t="inlineStr"/>
       <c r="J1245" t="inlineStr"/>
-      <c r="K1245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1245" t="inlineStr"/>
       <c r="L1245" t="n">
         <v>1</v>
       </c>
@@ -41601,11 +41507,7 @@
       </c>
       <c r="I1246" t="inlineStr"/>
       <c r="J1246" t="inlineStr"/>
-      <c r="K1246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1246" t="inlineStr"/>
       <c r="L1246" t="n">
         <v>1</v>
       </c>
@@ -41638,11 +41540,7 @@
       </c>
       <c r="I1247" t="inlineStr"/>
       <c r="J1247" t="inlineStr"/>
-      <c r="K1247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1247" t="inlineStr"/>
       <c r="L1247" t="n">
         <v>1</v>
       </c>
@@ -41675,11 +41573,7 @@
       </c>
       <c r="I1248" t="inlineStr"/>
       <c r="J1248" t="inlineStr"/>
-      <c r="K1248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1248" t="inlineStr"/>
       <c r="L1248" t="n">
         <v>1</v>
       </c>
@@ -41712,11 +41606,7 @@
       </c>
       <c r="I1249" t="inlineStr"/>
       <c r="J1249" t="inlineStr"/>
-      <c r="K1249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1249" t="inlineStr"/>
       <c r="L1249" t="n">
         <v>1</v>
       </c>
@@ -41749,11 +41639,7 @@
       </c>
       <c r="I1250" t="inlineStr"/>
       <c r="J1250" t="inlineStr"/>
-      <c r="K1250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1250" t="inlineStr"/>
       <c r="L1250" t="n">
         <v>1</v>
       </c>
@@ -41786,11 +41672,7 @@
       </c>
       <c r="I1251" t="inlineStr"/>
       <c r="J1251" t="inlineStr"/>
-      <c r="K1251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1251" t="inlineStr"/>
       <c r="L1251" t="n">
         <v>1</v>
       </c>
@@ -41823,11 +41705,7 @@
       </c>
       <c r="I1252" t="inlineStr"/>
       <c r="J1252" t="inlineStr"/>
-      <c r="K1252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1252" t="inlineStr"/>
       <c r="L1252" t="n">
         <v>1</v>
       </c>
@@ -41860,11 +41738,7 @@
       </c>
       <c r="I1253" t="inlineStr"/>
       <c r="J1253" t="inlineStr"/>
-      <c r="K1253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1253" t="inlineStr"/>
       <c r="L1253" t="n">
         <v>1</v>
       </c>
@@ -41897,11 +41771,7 @@
       </c>
       <c r="I1254" t="inlineStr"/>
       <c r="J1254" t="inlineStr"/>
-      <c r="K1254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1254" t="inlineStr"/>
       <c r="L1254" t="n">
         <v>1</v>
       </c>
@@ -41934,11 +41804,7 @@
       </c>
       <c r="I1255" t="inlineStr"/>
       <c r="J1255" t="inlineStr"/>
-      <c r="K1255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1255" t="inlineStr"/>
       <c r="L1255" t="n">
         <v>1</v>
       </c>
@@ -41971,11 +41837,7 @@
       </c>
       <c r="I1256" t="inlineStr"/>
       <c r="J1256" t="inlineStr"/>
-      <c r="K1256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1256" t="inlineStr"/>
       <c r="L1256" t="n">
         <v>1</v>
       </c>
@@ -42008,11 +41870,7 @@
       </c>
       <c r="I1257" t="inlineStr"/>
       <c r="J1257" t="inlineStr"/>
-      <c r="K1257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1257" t="inlineStr"/>
       <c r="L1257" t="n">
         <v>1</v>
       </c>
@@ -42045,11 +41903,7 @@
       </c>
       <c r="I1258" t="inlineStr"/>
       <c r="J1258" t="inlineStr"/>
-      <c r="K1258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1258" t="inlineStr"/>
       <c r="L1258" t="n">
         <v>1</v>
       </c>
@@ -42082,11 +41936,7 @@
       </c>
       <c r="I1259" t="inlineStr"/>
       <c r="J1259" t="inlineStr"/>
-      <c r="K1259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1259" t="inlineStr"/>
       <c r="L1259" t="n">
         <v>1</v>
       </c>
@@ -42119,11 +41969,7 @@
       </c>
       <c r="I1260" t="inlineStr"/>
       <c r="J1260" t="inlineStr"/>
-      <c r="K1260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1260" t="inlineStr"/>
       <c r="L1260" t="n">
         <v>1</v>
       </c>
@@ -42156,11 +42002,7 @@
       </c>
       <c r="I1261" t="inlineStr"/>
       <c r="J1261" t="inlineStr"/>
-      <c r="K1261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1261" t="inlineStr"/>
       <c r="L1261" t="n">
         <v>1</v>
       </c>
@@ -42193,11 +42035,7 @@
       </c>
       <c r="I1262" t="inlineStr"/>
       <c r="J1262" t="inlineStr"/>
-      <c r="K1262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1262" t="inlineStr"/>
       <c r="L1262" t="n">
         <v>1</v>
       </c>
@@ -42230,11 +42068,7 @@
       </c>
       <c r="I1263" t="inlineStr"/>
       <c r="J1263" t="inlineStr"/>
-      <c r="K1263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1263" t="inlineStr"/>
       <c r="L1263" t="n">
         <v>1</v>
       </c>
@@ -42267,11 +42101,7 @@
       </c>
       <c r="I1264" t="inlineStr"/>
       <c r="J1264" t="inlineStr"/>
-      <c r="K1264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1264" t="inlineStr"/>
       <c r="L1264" t="n">
         <v>1</v>
       </c>
@@ -42304,11 +42134,7 @@
       </c>
       <c r="I1265" t="inlineStr"/>
       <c r="J1265" t="inlineStr"/>
-      <c r="K1265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1265" t="inlineStr"/>
       <c r="L1265" t="n">
         <v>1</v>
       </c>
@@ -42341,11 +42167,7 @@
       </c>
       <c r="I1266" t="inlineStr"/>
       <c r="J1266" t="inlineStr"/>
-      <c r="K1266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1266" t="inlineStr"/>
       <c r="L1266" t="n">
         <v>1</v>
       </c>
@@ -42378,11 +42200,7 @@
       </c>
       <c r="I1267" t="inlineStr"/>
       <c r="J1267" t="inlineStr"/>
-      <c r="K1267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1267" t="inlineStr"/>
       <c r="L1267" t="n">
         <v>1</v>
       </c>
@@ -42415,11 +42233,7 @@
       </c>
       <c r="I1268" t="inlineStr"/>
       <c r="J1268" t="inlineStr"/>
-      <c r="K1268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1268" t="inlineStr"/>
       <c r="L1268" t="n">
         <v>1</v>
       </c>
@@ -42452,11 +42266,7 @@
       </c>
       <c r="I1269" t="inlineStr"/>
       <c r="J1269" t="inlineStr"/>
-      <c r="K1269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1269" t="inlineStr"/>
       <c r="L1269" t="n">
         <v>1</v>
       </c>
@@ -42489,11 +42299,7 @@
       </c>
       <c r="I1270" t="inlineStr"/>
       <c r="J1270" t="inlineStr"/>
-      <c r="K1270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1270" t="inlineStr"/>
       <c r="L1270" t="n">
         <v>1</v>
       </c>
@@ -42526,11 +42332,7 @@
       </c>
       <c r="I1271" t="inlineStr"/>
       <c r="J1271" t="inlineStr"/>
-      <c r="K1271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1271" t="inlineStr"/>
       <c r="L1271" t="n">
         <v>1</v>
       </c>
@@ -42563,11 +42365,7 @@
       </c>
       <c r="I1272" t="inlineStr"/>
       <c r="J1272" t="inlineStr"/>
-      <c r="K1272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1272" t="inlineStr"/>
       <c r="L1272" t="n">
         <v>1</v>
       </c>
@@ -42596,17 +42394,11 @@
         <v>-473.2062962999998</v>
       </c>
       <c r="H1273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1273" t="n">
-        <v>9785000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1273" t="inlineStr"/>
       <c r="J1273" t="inlineStr"/>
-      <c r="K1273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1273" t="inlineStr"/>
       <c r="L1273" t="n">
         <v>1</v>
       </c>
@@ -42635,17 +42427,11 @@
         <v>-483.8985962999998</v>
       </c>
       <c r="H1274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1274" t="n">
-        <v>9778000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1274" t="inlineStr"/>
       <c r="J1274" t="inlineStr"/>
-      <c r="K1274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1274" t="inlineStr"/>
       <c r="L1274" t="n">
         <v>1</v>
       </c>
@@ -42674,17 +42460,11 @@
         <v>-483.8985962999998</v>
       </c>
       <c r="H1275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1275" t="n">
-        <v>9773000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1275" t="inlineStr"/>
       <c r="J1275" t="inlineStr"/>
-      <c r="K1275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1275" t="inlineStr"/>
       <c r="L1275" t="n">
         <v>1</v>
       </c>
@@ -42721,7 +42501,7 @@
       <c r="J1276" t="inlineStr"/>
       <c r="K1276" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L1276" t="n">
@@ -43220,9 +43000,11 @@
         <v>-439.6425865999999</v>
       </c>
       <c r="H1289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1289" t="n">
+        <v>9808000</v>
+      </c>
       <c r="J1289" t="inlineStr"/>
       <c r="K1289" t="inlineStr">
         <is>
@@ -43257,9 +43039,11 @@
         <v>-441.8821910799999</v>
       </c>
       <c r="H1290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1290" t="n">
+        <v>9823000</v>
+      </c>
       <c r="J1290" t="inlineStr"/>
       <c r="K1290" t="inlineStr">
         <is>
@@ -44515,16 +44299,18 @@
         <v>-426.73485533</v>
       </c>
       <c r="H1324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1324" t="inlineStr"/>
       <c r="J1324" t="inlineStr"/>
       <c r="K1324" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L1324" t="inlineStr"/>
+      <c r="L1324" t="n">
+        <v>1</v>
+      </c>
       <c r="M1324" t="inlineStr"/>
     </row>
     <row r="1325">
@@ -44550,11 +44336,15 @@
         <v>-426.73485533</v>
       </c>
       <c r="H1325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1325" t="inlineStr"/>
       <c r="J1325" t="inlineStr"/>
-      <c r="K1325" t="inlineStr"/>
+      <c r="K1325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1325" t="n">
         <v>1</v>
       </c>
@@ -44583,11 +44373,15 @@
         <v>-427.26295533</v>
       </c>
       <c r="H1326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1326" t="inlineStr"/>
       <c r="J1326" t="inlineStr"/>
-      <c r="K1326" t="inlineStr"/>
+      <c r="K1326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1326" t="n">
         <v>1</v>
       </c>
@@ -44616,11 +44410,15 @@
         <v>-427.26295533</v>
       </c>
       <c r="H1327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1327" t="inlineStr"/>
       <c r="J1327" t="inlineStr"/>
-      <c r="K1327" t="inlineStr"/>
+      <c r="K1327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1327" t="n">
         <v>1</v>
       </c>
@@ -44649,11 +44447,15 @@
         <v>-426.5189553299999</v>
       </c>
       <c r="H1328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1328" t="inlineStr"/>
       <c r="J1328" t="inlineStr"/>
-      <c r="K1328" t="inlineStr"/>
+      <c r="K1328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1328" t="n">
         <v>1</v>
       </c>
@@ -44682,11 +44484,15 @@
         <v>-424.3354553299999</v>
       </c>
       <c r="H1329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1329" t="inlineStr"/>
       <c r="J1329" t="inlineStr"/>
-      <c r="K1329" t="inlineStr"/>
+      <c r="K1329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1329" t="n">
         <v>1</v>
       </c>
@@ -44715,11 +44521,15 @@
         <v>-424.8425553299999</v>
       </c>
       <c r="H1330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1330" t="inlineStr"/>
       <c r="J1330" t="inlineStr"/>
-      <c r="K1330" t="inlineStr"/>
+      <c r="K1330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1330" t="n">
         <v>1</v>
       </c>
@@ -44748,11 +44558,15 @@
         <v>-429.9102553299999</v>
       </c>
       <c r="H1331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1331" t="inlineStr"/>
       <c r="J1331" t="inlineStr"/>
-      <c r="K1331" t="inlineStr"/>
+      <c r="K1331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1331" t="n">
         <v>1</v>
       </c>
@@ -44781,11 +44595,15 @@
         <v>-432.0698553299999</v>
       </c>
       <c r="H1332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1332" t="inlineStr"/>
       <c r="J1332" t="inlineStr"/>
-      <c r="K1332" t="inlineStr"/>
+      <c r="K1332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1332" t="n">
         <v>1</v>
       </c>
@@ -44814,11 +44632,15 @@
         <v>-434.5092551199999</v>
       </c>
       <c r="H1333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1333" t="inlineStr"/>
       <c r="J1333" t="inlineStr"/>
-      <c r="K1333" t="inlineStr"/>
+      <c r="K1333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1333" t="n">
         <v>1</v>
       </c>
@@ -44847,11 +44669,15 @@
         <v>-435.7872551199999</v>
       </c>
       <c r="H1334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1334" t="inlineStr"/>
       <c r="J1334" t="inlineStr"/>
-      <c r="K1334" t="inlineStr"/>
+      <c r="K1334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1334" t="n">
         <v>1</v>
       </c>
@@ -44884,7 +44710,11 @@
       </c>
       <c r="I1335" t="inlineStr"/>
       <c r="J1335" t="inlineStr"/>
-      <c r="K1335" t="inlineStr"/>
+      <c r="K1335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1335" t="n">
         <v>1</v>
       </c>
@@ -44917,7 +44747,11 @@
       </c>
       <c r="I1336" t="inlineStr"/>
       <c r="J1336" t="inlineStr"/>
-      <c r="K1336" t="inlineStr"/>
+      <c r="K1336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1336" t="n">
         <v>1</v>
       </c>
@@ -44950,7 +44784,11 @@
       </c>
       <c r="I1337" t="inlineStr"/>
       <c r="J1337" t="inlineStr"/>
-      <c r="K1337" t="inlineStr"/>
+      <c r="K1337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1337" t="n">
         <v>1</v>
       </c>
@@ -44983,7 +44821,11 @@
       </c>
       <c r="I1338" t="inlineStr"/>
       <c r="J1338" t="inlineStr"/>
-      <c r="K1338" t="inlineStr"/>
+      <c r="K1338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1338" t="n">
         <v>1</v>
       </c>
@@ -45016,7 +44858,11 @@
       </c>
       <c r="I1339" t="inlineStr"/>
       <c r="J1339" t="inlineStr"/>
-      <c r="K1339" t="inlineStr"/>
+      <c r="K1339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1339" t="n">
         <v>1</v>
       </c>
@@ -45049,7 +44895,11 @@
       </c>
       <c r="I1340" t="inlineStr"/>
       <c r="J1340" t="inlineStr"/>
-      <c r="K1340" t="inlineStr"/>
+      <c r="K1340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1340" t="n">
         <v>1</v>
       </c>
@@ -45082,7 +44932,11 @@
       </c>
       <c r="I1341" t="inlineStr"/>
       <c r="J1341" t="inlineStr"/>
-      <c r="K1341" t="inlineStr"/>
+      <c r="K1341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1341" t="n">
         <v>1</v>
       </c>
@@ -45115,7 +44969,11 @@
       </c>
       <c r="I1342" t="inlineStr"/>
       <c r="J1342" t="inlineStr"/>
-      <c r="K1342" t="inlineStr"/>
+      <c r="K1342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1342" t="n">
         <v>1</v>
       </c>
@@ -45148,7 +45006,11 @@
       </c>
       <c r="I1343" t="inlineStr"/>
       <c r="J1343" t="inlineStr"/>
-      <c r="K1343" t="inlineStr"/>
+      <c r="K1343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1343" t="n">
         <v>1</v>
       </c>
@@ -45181,7 +45043,11 @@
       </c>
       <c r="I1344" t="inlineStr"/>
       <c r="J1344" t="inlineStr"/>
-      <c r="K1344" t="inlineStr"/>
+      <c r="K1344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1344" t="n">
         <v>1</v>
       </c>
@@ -45214,7 +45080,11 @@
       </c>
       <c r="I1345" t="inlineStr"/>
       <c r="J1345" t="inlineStr"/>
-      <c r="K1345" t="inlineStr"/>
+      <c r="K1345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1345" t="n">
         <v>1</v>
       </c>
